--- a/IO_sample3.xlsx
+++ b/IO_sample3.xlsx
@@ -172,7 +172,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -219,7 +219,7 @@
               <c:f>Sheet1!$A$1:$A$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="130"/>
+                <c:ptCount val="132"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -350,265 +350,271 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.2</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="51">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="98">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="99">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="100">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="101">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="102">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="103">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="107">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="108">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="109">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="63">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="110">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="115">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="116">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="117">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="118">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="119">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="120">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="121">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="125">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="126">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="127">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="112">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.4</c:v>
-                </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.6</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.8</c:v>
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -653,7 +659,7 @@
               <c:f>Sheet1!$B$1:$B$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="130"/>
+                <c:ptCount val="132"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -817,232 +823,238 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="56">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="71">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="73">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="74">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="75">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="76">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="81">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="82">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="69">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="115">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="116">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="117">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="118">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="119">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="120">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="121">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="125">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="126">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="127">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="85">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.4</c:v>
-                </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.6</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.8</c:v>
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1087,9 +1099,9 @@
               <c:f>Sheet1!$C$1:$C$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="130"/>
+                <c:ptCount val="132"/>
                 <c:pt idx="0">
-                  <c:v>0.8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.8</c:v>
@@ -1314,169 +1326,175 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="92">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="94">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="95">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="96">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="97">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="102">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="103">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="90">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="104">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="115">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="116">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="117">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="118">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="119">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="120">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="121">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="125">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="126">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="127">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="106">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.4</c:v>
-                </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.6</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.8</c:v>
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1491,11 +1509,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="32166645"/>
-        <c:axId val="92966305"/>
+        <c:axId val="37143345"/>
+        <c:axId val="1292346"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="32166645"/>
+        <c:axId val="37143345"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,14 +1541,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92966305"/>
+        <c:crossAx val="1292346"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92966305"/>
+        <c:axId val="1292346"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1567,7 +1585,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32166645"/>
+        <c:crossAx val="37143345"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1620,15 +1638,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>420840</xdr:colOff>
+      <xdr:colOff>421200</xdr:colOff>
       <xdr:row>90</xdr:row>
       <xdr:rowOff>36000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>217080</xdr:colOff>
+      <xdr:colOff>216720</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
+      <xdr:rowOff>119880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1636,8 +1654,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5732280" y="15458760"/>
-        <a:ext cx="11178720" cy="3239280"/>
+        <a:off x="5732640" y="15809400"/>
+        <a:ext cx="11178000" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1655,10 +1673,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E132"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A101" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E132" activeCellId="0" sqref="E132"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1674,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E1" s="0" t="n">
         <v>1</v>
@@ -1691,7 +1709,7 @@
         <v>0.8</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2270,7 +2288,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>1</v>
@@ -2279,40 +2297,40 @@
         <v>1</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1</v>
@@ -2321,12 +2339,12 @@
         <v>1</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>1</v>
@@ -2335,12 +2353,12 @@
         <v>1</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>1</v>
@@ -2354,7 +2372,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>1</v>
@@ -2363,12 +2381,12 @@
         <v>1</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1</v>
@@ -2377,12 +2395,12 @@
         <v>1</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>1</v>
@@ -2391,12 +2409,12 @@
         <v>1</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>1</v>
@@ -2405,12 +2423,12 @@
         <v>1</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>1</v>
@@ -2424,10 +2442,10 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>1</v>
@@ -2438,10 +2456,10 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>1</v>
@@ -2452,66 +2470,66 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>1</v>
@@ -2522,10 +2540,10 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>1</v>
@@ -2536,44 +2554,44 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2581,13 +2599,13 @@
         <v>1</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2595,13 +2613,13 @@
         <v>1</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2609,13 +2627,13 @@
         <v>1</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2623,13 +2641,13 @@
         <v>1</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2637,7 +2655,7 @@
         <v>1</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>1</v>
@@ -2657,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2665,13 +2683,13 @@
         <v>1</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2679,13 +2697,13 @@
         <v>1</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2693,13 +2711,13 @@
         <v>1</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2707,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>1</v>
@@ -2721,10 +2739,10 @@
         <v>1</v>
       </c>
       <c r="B76" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C76" s="0" t="n">
         <v>0.8</v>
-      </c>
-      <c r="C76" s="0" t="n">
-        <v>1</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>3</v>
@@ -2735,10 +2753,10 @@
         <v>1</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>3</v>
@@ -2749,10 +2767,10 @@
         <v>1</v>
       </c>
       <c r="B78" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C78" s="0" t="n">
         <v>0.6</v>
-      </c>
-      <c r="C78" s="0" t="n">
-        <v>1</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>3</v>
@@ -2763,13 +2781,13 @@
         <v>1</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2777,13 +2795,13 @@
         <v>1</v>
       </c>
       <c r="B80" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C80" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="C80" s="0" t="n">
-        <v>0.8</v>
-      </c>
       <c r="E80" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2791,13 +2809,13 @@
         <v>1</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2805,13 +2823,13 @@
         <v>1</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2819,10 +2837,10 @@
         <v>1</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>7</v>
@@ -2833,10 +2851,10 @@
         <v>1</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>7</v>
@@ -2847,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2861,13 +2879,13 @@
         <v>1</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2875,13 +2893,13 @@
         <v>1</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2892,10 +2910,10 @@
         <v>1</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2906,10 +2924,10 @@
         <v>1</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2920,10 +2938,10 @@
         <v>1</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2934,10 +2952,10 @@
         <v>1</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2962,10 +2980,10 @@
         <v>1</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2976,10 +2994,10 @@
         <v>1</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2990,10 +3008,10 @@
         <v>1</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3004,10 +3022,10 @@
         <v>1</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3018,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>4</v>
@@ -3026,13 +3044,13 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>4</v>
@@ -3040,13 +3058,13 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>4</v>
@@ -3054,125 +3072,125 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E108" s="0" t="n">
         <v>2</v>
@@ -3180,7 +3198,7 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>1</v>
@@ -3194,7 +3212,7 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>1</v>
@@ -3203,12 +3221,12 @@
         <v>1</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>1</v>
@@ -3217,12 +3235,12 @@
         <v>1</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>1</v>
@@ -3231,12 +3249,12 @@
         <v>1</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>1</v>
@@ -3245,12 +3263,12 @@
         <v>1</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>1</v>
@@ -3278,13 +3296,13 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>1</v>
@@ -3292,69 +3310,69 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E121" s="0" t="n">
         <v>8</v>
@@ -3362,13 +3380,13 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>8</v>
@@ -3376,13 +3394,13 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="E123" s="0" t="n">
         <v>8</v>
@@ -3390,13 +3408,13 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E124" s="0" t="n">
         <v>8</v>
@@ -3404,13 +3422,13 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E125" s="0" t="n">
         <v>8</v>
@@ -3418,13 +3436,13 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>8</v>
@@ -3432,86 +3450,30 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B129" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C129" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E129" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="B130" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C130" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E130" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="B131" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C131" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E131" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="B132" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C132" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E132" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
